--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8c6976e5b5410415bde908bd4dee15dfb167a9c873fc4bb8a81f6f2ab448a918</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>admin@admin</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>staff</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,50 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Spiderman</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>19513fdc9da4fb72a4a05eb66917548d3c90ff94d5419e1f2363eea89dfee1dd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fortnite@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>JohnDoe</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>e7cf3ef4f17c3999a94f2c6f612e8a888e5b1026878e4e19398b23bd38ec221a</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>libralinkcpsc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,72 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Galactus</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>e7cf3ef4f17c3999a94f2c6f612e8a888e5b1026878e4e19398b23bd38ec221a</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>galactus@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bowser</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>e7cf3ef4f17c3999a94f2c6f612e8a888e5b1026878e4e19398b23bd38ec221a</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Bowser@Bowser.gov</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BillGates</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>e7cf3ef4f17c3999a94f2c6f612e8a888e5b1026878e4e19398b23bd38ec221a</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BillGates@Microsoft.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>member</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
